--- a/Code/Results/Cases/Case_9_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_45/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,49 +421,55 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.431722212021327</v>
+        <v>3.435388982439065</v>
       </c>
       <c r="C2">
-        <v>0.9766563646465158</v>
+        <v>0.9824615184713821</v>
       </c>
       <c r="D2">
-        <v>0.2918202909424679</v>
+        <v>0.2934074079807516</v>
       </c>
       <c r="E2">
-        <v>0.2229973513215242</v>
+        <v>0.2234753399086173</v>
       </c>
       <c r="F2">
-        <v>0.557684611829238</v>
+        <v>0.5522356751619313</v>
       </c>
       <c r="G2">
-        <v>0.2512080725662287</v>
+        <v>0.2292427129780279</v>
       </c>
       <c r="H2">
-        <v>0.0009577574748917961</v>
+        <v>0.0009740627098688837</v>
       </c>
       <c r="I2">
-        <v>0.0009438538864170454</v>
+        <v>0.001216744906739287</v>
       </c>
       <c r="J2">
-        <v>0.2373298370250794</v>
+        <v>0.2731336572952898</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2291466910046225</v>
+        <v>0.09770375539377696</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.02926564546153698</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2290670716909275</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -472,51 +478,57 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.978460107725553</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.9642079955856957</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.991534417853586</v>
+        <v>2.996147023699052</v>
       </c>
       <c r="C3">
-        <v>0.8614281921721556</v>
+        <v>0.8565931249403889</v>
       </c>
       <c r="D3">
-        <v>0.2601125922425638</v>
+        <v>0.2611363804536353</v>
       </c>
       <c r="E3">
-        <v>0.1994596521743546</v>
+        <v>0.1999935901887824</v>
       </c>
       <c r="F3">
-        <v>0.5319169843740355</v>
+        <v>0.5285109265317018</v>
       </c>
       <c r="G3">
-        <v>0.242701636906979</v>
+        <v>0.2223599459790506</v>
       </c>
       <c r="H3">
-        <v>0.0002728873430990486</v>
+        <v>0.000303043947162962</v>
       </c>
       <c r="I3">
-        <v>0.0005000083697983548</v>
+        <v>0.0007100587208239695</v>
       </c>
       <c r="J3">
-        <v>0.2385505104056591</v>
+        <v>0.2729280852557636</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2054838292038852</v>
+        <v>0.1035397706165071</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.03359763312536238</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2058198912970042</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -525,51 +537,57 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.9626599791303789</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.9523939518604152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.720776731453952</v>
+        <v>2.725850557778756</v>
       </c>
       <c r="C4">
-        <v>0.7911876383361403</v>
+        <v>0.7800830573748101</v>
       </c>
       <c r="D4">
-        <v>0.2407129347179051</v>
+        <v>0.2414170285222639</v>
       </c>
       <c r="E4">
-        <v>0.1850154658343399</v>
+        <v>0.1855878136207458</v>
       </c>
       <c r="F4">
-        <v>0.516657457267371</v>
+        <v>0.5143661304209246</v>
       </c>
       <c r="G4">
-        <v>0.237953475225936</v>
+        <v>0.2185896700659455</v>
       </c>
       <c r="H4">
-        <v>5.378871120642614E-05</v>
+        <v>7.426037498681204E-05</v>
       </c>
       <c r="I4">
-        <v>0.0004259727261732849</v>
+        <v>0.0005626508124056961</v>
       </c>
       <c r="J4">
-        <v>0.2396211184627219</v>
+        <v>0.2729288958620302</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1909278224338209</v>
+        <v>0.1074473173295143</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.03673812286995426</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1915116679246225</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -578,51 +596,57 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.9546294094096766</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.9464075547946038</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.610286193502418</v>
+        <v>2.615520563586415</v>
       </c>
       <c r="C5">
-        <v>0.7642685475595101</v>
+        <v>0.750606416826372</v>
       </c>
       <c r="D5">
-        <v>0.2329758748544748</v>
+        <v>0.2335493178966317</v>
       </c>
       <c r="E5">
-        <v>0.1791644407244526</v>
+        <v>0.1797519452731748</v>
       </c>
       <c r="F5">
-        <v>0.5100254684393235</v>
+        <v>0.5081784136310148</v>
       </c>
       <c r="G5">
-        <v>0.2357052118113998</v>
+        <v>0.2167582241032235</v>
       </c>
       <c r="H5">
-        <v>1.223541958927932E-05</v>
+        <v>2.44510784641605E-05</v>
       </c>
       <c r="I5">
-        <v>0.0005077159603152914</v>
+        <v>0.0006186973664616957</v>
       </c>
       <c r="J5">
-        <v>0.2399077526598603</v>
+        <v>0.2727344158216169</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1849603716894137</v>
+        <v>0.1090017251603772</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.03813332263823899</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1856446012352677</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -631,51 +655,57 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.9503771083694943</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.9429499087068223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.59190761293479</v>
+        <v>2.597165885317338</v>
       </c>
       <c r="C6">
-        <v>0.7617505019996429</v>
+        <v>0.7475826517685391</v>
       </c>
       <c r="D6">
-        <v>0.2318798616327626</v>
+        <v>0.2324232644896114</v>
       </c>
       <c r="E6">
-        <v>0.178235631334541</v>
+        <v>0.1788236388133306</v>
       </c>
       <c r="F6">
-        <v>0.5082634422392545</v>
+        <v>0.5065178138852318</v>
       </c>
       <c r="G6">
-        <v>0.2348185835722063</v>
+        <v>0.2159696559187338</v>
       </c>
       <c r="H6">
-        <v>8.08714651934217E-06</v>
+        <v>1.864686093666634E-05</v>
       </c>
       <c r="I6">
-        <v>0.0006110713942604207</v>
+        <v>0.0007339299258859455</v>
       </c>
       <c r="J6">
-        <v>0.2396823045761707</v>
+        <v>0.2724286621172141</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1839358950283057</v>
+        <v>0.1091206562320384</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.0383682427678198</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.184637993713082</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -684,51 +714,57 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.9480108962815734</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.9407836180717197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.71922312730868</v>
+        <v>2.724264014953633</v>
       </c>
       <c r="C7">
-        <v>0.7961499950631605</v>
+        <v>0.7844753818949926</v>
       </c>
       <c r="D7">
-        <v>0.2411223867025427</v>
+        <v>0.2420725511093309</v>
       </c>
       <c r="E7">
-        <v>0.1850538099782888</v>
+        <v>0.1856774848293554</v>
       </c>
       <c r="F7">
-        <v>0.514742267316997</v>
+        <v>0.5115766743918329</v>
       </c>
       <c r="G7">
-        <v>0.2365033970349728</v>
+        <v>0.2193259264783265</v>
       </c>
       <c r="H7">
-        <v>5.257033647065867E-05</v>
+        <v>7.230738576713414E-05</v>
       </c>
       <c r="I7">
-        <v>0.0006492748347044497</v>
+        <v>0.0008281240630125808</v>
       </c>
       <c r="J7">
-        <v>0.2388679838908629</v>
+        <v>0.2687606223627768</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.190757381009341</v>
+        <v>0.1069734528086652</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.03672735835687591</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1912898907011495</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -737,51 +773,57 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.949976999190838</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.9395857723472432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.279947042343963</v>
+        <v>3.283852366734777</v>
       </c>
       <c r="C8">
-        <v>0.9439356665523349</v>
+        <v>0.9447133595730008</v>
       </c>
       <c r="D8">
-        <v>0.2815555575360094</v>
+        <v>0.2838251678556816</v>
       </c>
       <c r="E8">
-        <v>0.2150356420716193</v>
+        <v>0.2157172640289318</v>
       </c>
       <c r="F8">
-        <v>0.5462695139551386</v>
+        <v>0.5384877357780837</v>
       </c>
       <c r="G8">
-        <v>0.246300566327271</v>
+        <v>0.2320479795628287</v>
       </c>
       <c r="H8">
-        <v>0.000676046136441899</v>
+        <v>0.0006956839978491391</v>
       </c>
       <c r="I8">
-        <v>0.001012569919908834</v>
+        <v>0.001320604755641774</v>
       </c>
       <c r="J8">
-        <v>0.2366893680961439</v>
+        <v>0.2609982542701772</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2208735417147309</v>
+        <v>0.0989311091450773</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.03049871469341248</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2207584738248443</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -790,51 +832,57 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.9666057600951063</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.9462695071165399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.37662174362714</v>
+        <v>4.377290275523649</v>
       </c>
       <c r="C9">
-        <v>1.228595977151315</v>
+        <v>1.257318098102189</v>
       </c>
       <c r="D9">
-        <v>0.3605764491769179</v>
+        <v>0.3646836007858525</v>
       </c>
       <c r="E9">
-        <v>0.2737708566221642</v>
+        <v>0.2743919448047762</v>
       </c>
       <c r="F9">
-        <v>0.6161908233940636</v>
+        <v>0.6015313251707823</v>
       </c>
       <c r="G9">
-        <v>0.2721494602484995</v>
+        <v>0.2556411715662961</v>
       </c>
       <c r="H9">
-        <v>0.003634664411207966</v>
+        <v>0.003496778112751509</v>
       </c>
       <c r="I9">
-        <v>0.003118191542608173</v>
+        <v>0.003304029547734899</v>
       </c>
       <c r="J9">
-        <v>0.2364528139946245</v>
+        <v>0.2601572505808747</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2799746529489937</v>
+        <v>0.08670581212580952</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.02236290982513234</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2787164849509765</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -843,51 +891,57 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.021669861438525</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.9866941594480636</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.181268267949008</v>
+        <v>5.178438638875775</v>
       </c>
       <c r="C10">
-        <v>1.443495030795987</v>
+        <v>1.489884080562661</v>
       </c>
       <c r="D10">
-        <v>0.4113444676465292</v>
+        <v>0.4182803108566588</v>
       </c>
       <c r="E10">
-        <v>0.3062382852555459</v>
+        <v>0.3070967773364544</v>
       </c>
       <c r="F10">
-        <v>0.6577708016915835</v>
+        <v>0.6327512511224782</v>
       </c>
       <c r="G10">
-        <v>0.2874134928684242</v>
+        <v>0.2824887716185813</v>
       </c>
       <c r="H10">
-        <v>0.007003314052231424</v>
+        <v>0.006617560826355895</v>
       </c>
       <c r="I10">
-        <v>0.005996455633245468</v>
+        <v>0.005869128938370771</v>
       </c>
       <c r="J10">
-        <v>0.2347384763942841</v>
+        <v>0.2395550361745933</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3087191797846316</v>
+        <v>0.07879089462113686</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.01817382353677566</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3063271053061385</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -896,51 +950,57 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.050955207025979</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.9919990888647874</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.543332809605317</v>
+        <v>5.538717556067297</v>
       </c>
       <c r="C11">
-        <v>1.547681575116371</v>
+        <v>1.579905147147201</v>
       </c>
       <c r="D11">
-        <v>0.3669068127294537</v>
+        <v>0.3754079137030573</v>
       </c>
       <c r="E11">
-        <v>0.2333460353558721</v>
+        <v>0.2342179932275315</v>
       </c>
       <c r="F11">
-        <v>0.5708519294546974</v>
+        <v>0.540900580382349</v>
       </c>
       <c r="G11">
-        <v>0.2427321081952627</v>
+        <v>0.2675236188711878</v>
       </c>
       <c r="H11">
-        <v>0.02543783678362388</v>
+        <v>0.02495702936415967</v>
       </c>
       <c r="I11">
-        <v>0.00752093063727699</v>
+        <v>0.007294806691138689</v>
       </c>
       <c r="J11">
-        <v>0.2078820747009189</v>
+        <v>0.1874808714607354</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2091276960682578</v>
+        <v>0.07423714246498547</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.01339585851549652</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.206520518500156</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -949,51 +1009,57 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.9001864483618789</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.8302965471971788</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.678936278995025</v>
+        <v>5.673746557816798</v>
       </c>
       <c r="C12">
-        <v>1.581121874209487</v>
+        <v>1.598407928950735</v>
       </c>
       <c r="D12">
-        <v>0.3204467431057054</v>
+        <v>0.3285780255331048</v>
       </c>
       <c r="E12">
-        <v>0.1746981395277842</v>
+        <v>0.1752835281634084</v>
       </c>
       <c r="F12">
-        <v>0.4959395461474259</v>
+        <v>0.4676056019179669</v>
       </c>
       <c r="G12">
-        <v>0.2063195151912893</v>
+        <v>0.2435469004511575</v>
       </c>
       <c r="H12">
-        <v>0.06364129724861556</v>
+        <v>0.06314752984687999</v>
       </c>
       <c r="I12">
-        <v>0.007773443911034406</v>
+        <v>0.007480803585507623</v>
       </c>
       <c r="J12">
-        <v>0.1876862425406784</v>
+        <v>0.1642885294006113</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1395144248825915</v>
+        <v>0.07341033414895781</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.01123068959292062</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1371872942518948</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1002,51 +1068,57 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.7807603350167227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.7153167073287534</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.646640114280956</v>
+        <v>5.641921062538529</v>
       </c>
       <c r="C13">
-        <v>1.570195043613182</v>
+        <v>1.571866767344488</v>
       </c>
       <c r="D13">
-        <v>0.2708358225334706</v>
+        <v>0.2767376232328616</v>
       </c>
       <c r="E13">
-        <v>0.1240509807153281</v>
+        <v>0.124124445982229</v>
       </c>
       <c r="F13">
-        <v>0.4231693492841089</v>
+        <v>0.4025635973201105</v>
       </c>
       <c r="G13">
-        <v>0.1718515831188157</v>
+        <v>0.2052197628982881</v>
       </c>
       <c r="H13">
-        <v>0.1186004119481936</v>
+        <v>0.1181609716185648</v>
       </c>
       <c r="I13">
-        <v>0.007336253999230102</v>
+        <v>0.007096523610118588</v>
       </c>
       <c r="J13">
-        <v>0.1701845099081041</v>
+        <v>0.1576238843202731</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.08893261588125156</v>
+        <v>0.07417176948723725</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.01075002344637326</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.08719138391375481</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1055,51 +1127,57 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.6709981880679265</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.6243465748924137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.547929215184809</v>
+        <v>5.543984343936188</v>
       </c>
       <c r="C14">
-        <v>1.544153383167782</v>
+        <v>1.534549485435321</v>
       </c>
       <c r="D14">
-        <v>0.2354893540020839</v>
+        <v>0.2392455676951357</v>
       </c>
       <c r="E14">
-        <v>0.09385822543724487</v>
+        <v>0.09357196179235316</v>
       </c>
       <c r="F14">
-        <v>0.3738613989189261</v>
+        <v>0.3605585943986043</v>
       </c>
       <c r="G14">
-        <v>0.1488398721092921</v>
+        <v>0.1737013033669683</v>
       </c>
       <c r="H14">
-        <v>0.1672944693891196</v>
+        <v>0.1669168763308591</v>
       </c>
       <c r="I14">
-        <v>0.006812485945888902</v>
+        <v>0.006673572390665683</v>
       </c>
       <c r="J14">
-        <v>0.1592181610962271</v>
+        <v>0.1582218132699964</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.06506411814962298</v>
+        <v>0.07519690124200018</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.01128525101857281</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.06376285195724307</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1108,51 +1186,57 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.5991745886199453</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.5700612213998539</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.488048419861627</v>
+        <v>5.484500914044304</v>
       </c>
       <c r="C15">
-        <v>1.530661339497101</v>
+        <v>1.51810210545375</v>
       </c>
       <c r="D15">
-        <v>0.2261084928993</v>
+        <v>0.229073970986633</v>
       </c>
       <c r="E15">
-        <v>0.0870150722507077</v>
+        <v>0.08663407849261873</v>
       </c>
       <c r="F15">
-        <v>0.3613357360855431</v>
+        <v>0.3507108564109984</v>
       </c>
       <c r="G15">
-        <v>0.1430086286927548</v>
+        <v>0.1635623176582044</v>
       </c>
       <c r="H15">
-        <v>0.1795282764352777</v>
+        <v>0.179179268180917</v>
       </c>
       <c r="I15">
-        <v>0.00664748111602087</v>
+        <v>0.006578265410519535</v>
       </c>
       <c r="J15">
-        <v>0.1568054884532728</v>
+        <v>0.1605074532451276</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.06069763694248209</v>
+        <v>0.07556479976917974</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.01170134877304263</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.05953067111050103</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1161,51 +1245,57 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.5817196238331093</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.5589931295092043</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.147103213270213</v>
+        <v>5.145459972575054</v>
       </c>
       <c r="C16">
-        <v>1.443135704319502</v>
+        <v>1.429422570636007</v>
       </c>
       <c r="D16">
-        <v>0.2159949076444434</v>
+        <v>0.2165653744404068</v>
       </c>
       <c r="E16">
-        <v>0.08492211782682091</v>
+        <v>0.08439791376005701</v>
       </c>
       <c r="F16">
-        <v>0.3581763117436694</v>
+        <v>0.3556208134822754</v>
       </c>
       <c r="G16">
-        <v>0.1427046642920402</v>
+        <v>0.1448912955495345</v>
       </c>
       <c r="H16">
-        <v>0.1654867861912521</v>
+        <v>0.1652642682831527</v>
       </c>
       <c r="I16">
-        <v>0.005498986560787067</v>
+        <v>0.005653233193506857</v>
       </c>
       <c r="J16">
-        <v>0.1605236523031977</v>
+        <v>0.1828951890149462</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.0601899231412979</v>
+        <v>0.07648608555389114</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.01393141836018597</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.05940039323556157</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1214,51 +1304,57 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.5886475414587835</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.5848465997214589</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.938708258079828</v>
+        <v>4.938017056448246</v>
       </c>
       <c r="C17">
-        <v>1.390303569010825</v>
+        <v>1.381128717048625</v>
       </c>
       <c r="D17">
-        <v>0.2265709566728162</v>
+        <v>0.2265450134883906</v>
       </c>
       <c r="E17">
-        <v>0.0982119288672898</v>
+        <v>0.0977084725110906</v>
       </c>
       <c r="F17">
-        <v>0.3813417386510665</v>
+        <v>0.3808594474501916</v>
       </c>
       <c r="G17">
-        <v>0.1544449773922807</v>
+        <v>0.1484513889440251</v>
       </c>
       <c r="H17">
-        <v>0.1270617199595989</v>
+        <v>0.126895090985002</v>
       </c>
       <c r="I17">
-        <v>0.00494805272079013</v>
+        <v>0.005208531628796642</v>
       </c>
       <c r="J17">
-        <v>0.1691291466204419</v>
+        <v>0.2001509744246022</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.07038926687678071</v>
+        <v>0.07719075481463689</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.01530348187435115</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.06973865832109993</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1267,51 +1363,57 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.6314334069598431</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.6323406146530459</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.820053592457612</v>
+        <v>4.819751196577158</v>
       </c>
       <c r="C18">
-        <v>1.35623868288144</v>
+        <v>1.357751376509327</v>
       </c>
       <c r="D18">
-        <v>0.2573071351225025</v>
+        <v>0.2577196942696389</v>
       </c>
       <c r="E18">
-        <v>0.1312485659356142</v>
+        <v>0.1308700270679637</v>
       </c>
       <c r="F18">
-        <v>0.433361416249042</v>
+        <v>0.4313890273037657</v>
       </c>
       <c r="G18">
-        <v>0.1799749679725693</v>
+        <v>0.1687292854972355</v>
       </c>
       <c r="H18">
-        <v>0.07418271892053951</v>
+        <v>0.07403221970139384</v>
       </c>
       <c r="I18">
-        <v>0.00452735611243682</v>
+        <v>0.00477913054524759</v>
       </c>
       <c r="J18">
-        <v>0.1839005206107558</v>
+        <v>0.2181029719718737</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1010897549496406</v>
+        <v>0.07808748353349437</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.01627023115781348</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1004077721301257</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1320,51 +1422,57 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.7164314150812316</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.713500205105376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.781681073067034</v>
+        <v>4.781319589443171</v>
       </c>
       <c r="C19">
-        <v>1.350304887076618</v>
+        <v>1.366367315161426</v>
       </c>
       <c r="D19">
-        <v>0.3053714153582803</v>
+        <v>0.3069573331207351</v>
       </c>
       <c r="E19">
-        <v>0.1857324187440668</v>
+        <v>0.1855969514624469</v>
       </c>
       <c r="F19">
-        <v>0.5063809954279037</v>
+        <v>0.5003349823070593</v>
       </c>
       <c r="G19">
-        <v>0.2149412460783182</v>
+        <v>0.1994602151203893</v>
       </c>
       <c r="H19">
-        <v>0.02955204641944675</v>
+        <v>0.02938445626832475</v>
       </c>
       <c r="I19">
-        <v>0.004732355090923512</v>
+        <v>0.005002619904408867</v>
       </c>
       <c r="J19">
-        <v>0.2024293178099512</v>
+        <v>0.236356782436637</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1612886690550823</v>
+        <v>0.07937154110068811</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.01729362524582911</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1603770027164018</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1373,51 +1481,57 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.8293620885647215</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.8163901210831455</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.969742010897335</v>
+        <v>4.968050460268103</v>
       </c>
       <c r="C20">
-        <v>1.404051643081573</v>
+        <v>1.446360428886123</v>
       </c>
       <c r="D20">
-        <v>0.3992663612972933</v>
+        <v>0.4043693159695465</v>
       </c>
       <c r="E20">
-        <v>0.2976165487477971</v>
+        <v>0.2981793872151925</v>
       </c>
       <c r="F20">
-        <v>0.640491411733386</v>
+        <v>0.6220417726551943</v>
       </c>
       <c r="G20">
-        <v>0.2786095826958572</v>
+        <v>0.2631164391069092</v>
       </c>
       <c r="H20">
-        <v>0.005994067595107122</v>
+        <v>0.005697543375679626</v>
       </c>
       <c r="I20">
-        <v>0.005838096209337174</v>
+        <v>0.00598598717700316</v>
       </c>
       <c r="J20">
-        <v>0.2326527650706183</v>
+        <v>0.2536424717852412</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3002779265314501</v>
+        <v>0.08042507555203571</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.01882393119379877</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2983967125842213</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1426,51 +1540,57 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.027792053082067</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.9847138161790383</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.588073968775461</v>
+        <v>5.582503083002734</v>
       </c>
       <c r="C21">
-        <v>1.567274086346117</v>
+        <v>1.620679127283495</v>
       </c>
       <c r="D21">
-        <v>0.4506482658819095</v>
+        <v>0.4638751757561863</v>
       </c>
       <c r="E21">
-        <v>0.3395275611882766</v>
+        <v>0.3415643480016328</v>
       </c>
       <c r="F21">
-        <v>0.6940556768947843</v>
+        <v>0.6478231459489336</v>
       </c>
       <c r="G21">
-        <v>0.3016869456959057</v>
+        <v>0.3378090176891391</v>
       </c>
       <c r="H21">
-        <v>0.009134914616674969</v>
+        <v>0.008505047278572819</v>
       </c>
       <c r="I21">
-        <v>0.008440399985226499</v>
+        <v>0.008138049438673356</v>
       </c>
       <c r="J21">
-        <v>0.2371894746280532</v>
+        <v>0.1932174982758212</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3451931111460169</v>
+        <v>0.07506374916331315</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.01596406001866324</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.341246680985634</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1479,51 +1599,57 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.086606306190674</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.97717335605644</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.992389867371685</v>
+        <v>5.983992939291966</v>
       </c>
       <c r="C22">
-        <v>1.667386591503714</v>
+        <v>1.72674972294152</v>
       </c>
       <c r="D22">
-        <v>0.4795737478070521</v>
+        <v>0.4986460380130495</v>
       </c>
       <c r="E22">
-        <v>0.3612591448622098</v>
+        <v>0.3643791794729836</v>
       </c>
       <c r="F22">
-        <v>0.7259248822622908</v>
+        <v>0.6600271708217988</v>
       </c>
       <c r="G22">
-        <v>0.3162219346779267</v>
+        <v>0.3936672224763811</v>
       </c>
       <c r="H22">
-        <v>0.01144520727314832</v>
+        <v>0.01055684509316442</v>
       </c>
       <c r="I22">
-        <v>0.01014331403600899</v>
+        <v>0.009408051044625054</v>
       </c>
       <c r="J22">
-        <v>0.2399658772403654</v>
+        <v>0.1605271669396053</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3672388301152978</v>
+        <v>0.07209343254546652</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.01442174036368726</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3618758836036733</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1532,51 +1658,57 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.123479349249294</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.96728123853309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.776649065111769</v>
+        <v>5.769879208128032</v>
       </c>
       <c r="C23">
-        <v>1.607306124256013</v>
+        <v>1.664515220102771</v>
       </c>
       <c r="D23">
-        <v>0.4634997444514681</v>
+        <v>0.4786703843516591</v>
       </c>
       <c r="E23">
-        <v>0.3495074640235671</v>
+        <v>0.3518802579597136</v>
       </c>
       <c r="F23">
-        <v>0.7109584746429363</v>
+        <v>0.6579194841972154</v>
       </c>
       <c r="G23">
-        <v>0.3100338326953391</v>
+        <v>0.3585708984724931</v>
       </c>
       <c r="H23">
-        <v>0.01018930263828218</v>
+        <v>0.009453149146124981</v>
       </c>
       <c r="I23">
-        <v>0.008940779317470948</v>
+        <v>0.008390090849652587</v>
       </c>
       <c r="J23">
-        <v>0.2393033254758876</v>
+        <v>0.1826246269553877</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3555706389176123</v>
+        <v>0.073771623616151</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.01554179646875564</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3511038761528624</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1585,51 +1717,57 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.108842207791753</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.9830521450107739</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.960136432863578</v>
+        <v>4.958457111107293</v>
       </c>
       <c r="C24">
-        <v>1.391670742862971</v>
+        <v>1.435677284156043</v>
       </c>
       <c r="D24">
-        <v>0.403902556524443</v>
+        <v>0.4091699387036272</v>
       </c>
       <c r="E24">
-        <v>0.3053987675475156</v>
+        <v>0.3060103918606671</v>
       </c>
       <c r="F24">
-        <v>0.6526760833199816</v>
+        <v>0.633564561850271</v>
       </c>
       <c r="G24">
-        <v>0.2855142120564338</v>
+        <v>0.2690207510175355</v>
       </c>
       <c r="H24">
-        <v>0.006013293951509124</v>
+        <v>0.005713652520636769</v>
       </c>
       <c r="I24">
-        <v>0.005400027872838109</v>
+        <v>0.005448401684413184</v>
       </c>
       <c r="J24">
-        <v>0.2363040899282822</v>
+        <v>0.2574693954843212</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3113428153129831</v>
+        <v>0.0810062918734511</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.01940439140272687</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3094167075510796</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1638,51 +1776,57 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.05007185814199</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.005241656231249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.080013071475719</v>
+        <v>4.081754080943199</v>
       </c>
       <c r="C25">
-        <v>1.160914999872318</v>
+        <v>1.182024061651987</v>
       </c>
       <c r="D25">
-        <v>0.3400540361434281</v>
+        <v>0.3432079847451774</v>
       </c>
       <c r="E25">
-        <v>0.2580689993520338</v>
+        <v>0.2586107939730624</v>
       </c>
       <c r="F25">
-        <v>0.5934249124885085</v>
+        <v>0.5823149286393701</v>
       </c>
       <c r="G25">
-        <v>0.2621288222781786</v>
+        <v>0.2433492748854178</v>
       </c>
       <c r="H25">
-        <v>0.002624385381730265</v>
+        <v>0.002552510423996845</v>
       </c>
       <c r="I25">
-        <v>0.002721124997746571</v>
+        <v>0.003065213290500246</v>
       </c>
       <c r="J25">
-        <v>0.2348671755839149</v>
+        <v>0.2636506403020036</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2638231868455279</v>
+        <v>0.08945568090937606</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.02396706595061726</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2629698763559674</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1691,7 +1835,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.9969078199205086</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.9701722951052574</v>
       </c>
     </row>
   </sheetData>
